--- a/biospecdb/apps/uploader/tests/data/spectral_data.xlsx
+++ b/biospecdb/apps/uploader/tests/data/spectral_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamienoss/repos/biospecdb-project/biospecdb/biospecdb/apps/uploader/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82970D57-2B3E-EE48-BA61-DD817A652733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7EEBFD8-D80C-E740-8A65-1F53E1385FA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>PATIENT ID</t>
-  </si>
   <si>
     <t>fd39991e-8791-4a17-91de-5fee78236d6d</t>
   </si>
@@ -54,12 +51,15 @@
   <si>
     <t>4fd057b7-7078-4900-825c-28d145afa25e</t>
   </si>
+  <si>
+    <t>PATIENT CID</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,6 +77,12 @@
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -114,13 +120,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -426,9 +435,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BQE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -436,8 +443,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1799" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
+      <c r="A1" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B1" s="1">
         <v>4000</v>
@@ -5836,7 +5843,7 @@
     </row>
     <row r="2" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>0.35243566972859819</v>
@@ -11235,7 +11242,7 @@
     </row>
     <row r="3" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>0.8464647752786475</v>
@@ -16634,7 +16641,7 @@
     </row>
     <row r="4" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>0.3352149599479004</v>
@@ -22033,7 +22040,7 @@
     </row>
     <row r="5" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>8.7735178667463609E-2</v>
@@ -27432,7 +27439,7 @@
     </row>
     <row r="6" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>0.48874476286399787</v>
@@ -32831,7 +32838,7 @@
     </row>
     <row r="7" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>0.50855161315226549</v>
@@ -38230,7 +38237,7 @@
     </row>
     <row r="8" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>0.6624132229583628</v>
@@ -43629,7 +43636,7 @@
     </row>
     <row r="9" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>0.50331169143008303</v>
@@ -49028,7 +49035,7 @@
     </row>
     <row r="10" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>0.22235209677024809</v>
@@ -54427,7 +54434,7 @@
     </row>
     <row r="11" spans="1:1799" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>0.55987178426115347</v>
